--- a/tools/tools_software/vscode-vim快捷键总结.xlsx
+++ b/tools/tools_software/vscode-vim快捷键总结.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="120">
   <si>
     <t>组合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,6 +448,53 @@
   </si>
   <si>
     <t>（个人喜好）快捷键整理，作者：李英俊小朋友，仅供参考，基于vscode-vim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前窗口最小化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小化所有窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还原最小化的窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE+N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小化当前窗口</t>
+  </si>
+  <si>
+    <t>切换窗口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -506,6 +553,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -514,74 +564,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -858,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -875,27 +857,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1277,7 +1259,7 @@
       <c r="F40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1291,7 +1273,7 @@
       <c r="F41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="3"/>
+      <c r="G41" s="5"/>
     </row>
     <row r="42" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
@@ -1300,7 +1282,7 @@
       <c r="F42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="3"/>
+      <c r="G42" s="5"/>
     </row>
     <row r="43" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
@@ -1448,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1460,33 +1442,33 @@
     <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1498,19 +1480,20 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -1521,10 +1504,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1532,93 +1515,177 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
+      <c r="F12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/tools/tools_software/vscode-vim快捷键总结.xlsx
+++ b/tools/tools_software/vscode-vim快捷键总结.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="vscode-vim" sheetId="1" r:id="rId1"/>
-    <sheet name="windows" sheetId="2" r:id="rId2"/>
+    <sheet name="windows" sheetId="2" r:id="rId1"/>
+    <sheet name="vscode-vim" sheetId="1" r:id="rId2"/>
+    <sheet name="pycharm-vim" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="132">
   <si>
     <t>组合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -495,6 +496,54 @@
   </si>
   <si>
     <t>切换窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加书签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看书签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个书签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一个书签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看标记的书签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记书签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑书签描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（个人喜好）快捷键整理，作者：李英俊小朋友，仅供参考，基于pycharm-vim</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -550,6 +599,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -838,10 +890,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -857,27 +1179,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1259,7 +1581,7 @@
       <c r="F40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1273,7 +1595,7 @@
       <c r="F41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="5"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
@@ -1282,7 +1604,7 @@
       <c r="F42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="5"/>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
@@ -1428,28 +1750,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="1" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="17.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1460,240 +1778,149 @@
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="2" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="3"/>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>114</v>
+      <c r="D6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>116</v>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>27</v>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
-        <v>2</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>110</v>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tools/tools_software/vscode-vim快捷键总结.xlsx
+++ b/tools/tools_software/vscode-vim快捷键总结.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="windows" sheetId="2" r:id="rId1"/>
     <sheet name="vscode-vim" sheetId="1" r:id="rId2"/>
     <sheet name="pycharm-vim" sheetId="3" r:id="rId3"/>
+    <sheet name="Excel" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="136">
   <si>
     <t>组合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -544,6 +545,22 @@
   </si>
   <si>
     <t>（个人喜好）快捷键整理，作者：李英俊小朋友，仅供参考，基于pycharm-vim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENTER替换当前值；CTRL+ALT+ENTER替换所有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（个人喜好）快捷键整理，作者：李英俊小朋友，仅供参考，基于Excel2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全选目标数据，【解除】合并后居中，CTRL+G，定位条件选【空值】并确定，=+↑，SHIFT+ENTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量取消合并居中，并填充空值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -599,6 +616,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -892,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -908,27 +928,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1163,7 +1183,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1174,32 +1194,32 @@
     <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="42.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1370,7 +1390,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1380,8 +1400,11 @@
       <c r="G17" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
@@ -1392,7 +1415,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -1403,7 +1426,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
@@ -1414,7 +1437,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1425,7 +1448,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
@@ -1436,7 +1459,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1447,7 +1470,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1458,7 +1481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
@@ -1469,7 +1492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
@@ -1480,7 +1503,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1491,7 +1514,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
@@ -1502,7 +1525,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
@@ -1513,7 +1536,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
@@ -1524,7 +1547,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
         <v>4</v>
       </c>
@@ -1581,7 +1604,7 @@
       <c r="F40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1595,7 +1618,7 @@
       <c r="F41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="6"/>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
@@ -1604,7 +1627,7 @@
       <c r="F42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="6"/>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
@@ -1754,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1766,27 +1789,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1912,6 +1935,79 @@
       </c>
       <c r="G12" s="5" t="s">
         <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="9" style="6"/>
+    <col min="7" max="7" width="25.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="92" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/tools/tools_software/vscode-vim快捷键总结.xlsx
+++ b/tools/tools_software/vscode-vim快捷键总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="windows" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="140">
   <si>
     <t>组合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,6 +561,22 @@
   </si>
   <si>
     <t>批量取消合并居中，并填充空值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一个sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个sheet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -616,6 +632,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -912,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -928,27 +947,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1199,27 +1218,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1604,7 +1623,7 @@
       <c r="F40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1618,7 +1637,7 @@
       <c r="F41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="7"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
@@ -1627,7 +1646,7 @@
       <c r="F42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
@@ -1789,27 +1808,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1950,10 +1969,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1965,27 +1984,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2008,6 +2027,31 @@
       </c>
       <c r="H12" s="6" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/tools/tools_software/vscode-vim快捷键总结.xlsx
+++ b/tools/tools_software/vscode-vim快捷键总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="windows" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="142">
   <si>
     <t>组合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,6 +577,14 @@
   </si>
   <si>
     <t>下一个sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件另存为</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -632,6 +640,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -947,27 +958,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1199,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1218,27 +1229,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1613,6 +1624,20 @@
     <row r="36" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>3</v>
@@ -1623,7 +1648,7 @@
       <c r="F40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1637,7 +1662,7 @@
       <c r="F41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="8"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
@@ -1646,7 +1671,7 @@
       <c r="F42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="8"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
@@ -1700,18 +1725,18 @@
     </row>
     <row r="47" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="2" t="s">
+    <row r="49" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>103</v>
+      <c r="F49" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1722,13 +1747,10 @@
         <v>83</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1739,44 +1761,62 @@
         <v>83</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="2" t="s">
+    <row r="53" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="2" t="s">
+    <row r="56" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1808,27 +1848,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1971,7 +2011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1984,27 +2024,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>

--- a/tools/tools_software/vscode-vim快捷键总结.xlsx
+++ b/tools/tools_software/vscode-vim快捷键总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="windows" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="147">
   <si>
     <t>组合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,6 +585,26 @@
   </si>
   <si>
     <t>文件另存为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTRL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -658,7 +678,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -946,39 +972,39 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -989,7 +1015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1005,7 +1031,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1020,7 +1046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1035,7 +1061,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1050,7 +1076,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1067,7 +1093,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1076,7 +1102,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -1093,7 +1119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -1110,7 +1136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1121,7 +1147,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
@@ -1132,11 +1158,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>3</v>
@@ -1153,7 +1179,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>3</v>
@@ -1170,7 +1196,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>3</v>
@@ -1187,7 +1213,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>108</v>
       </c>
@@ -1212,44 +1238,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1260,7 +1286,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1271,7 +1297,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1282,7 +1308,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1293,7 +1319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1304,7 +1330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +1341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1329,7 +1355,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1340,7 +1366,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1354,7 +1380,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1365,7 +1391,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1376,7 +1402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1387,7 +1413,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1398,7 +1424,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1409,7 +1435,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1420,7 +1446,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1434,7 +1460,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
@@ -1445,7 +1471,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -1456,7 +1482,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
@@ -1467,7 +1493,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1478,7 +1504,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
@@ -1489,7 +1515,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1500,7 +1526,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1511,7 +1537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
@@ -1522,7 +1548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
@@ -1533,7 +1559,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1544,7 +1570,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
@@ -1555,7 +1581,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
@@ -1566,7 +1592,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
@@ -1577,7 +1603,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>4</v>
       </c>
@@ -1588,7 +1614,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
         <v>74</v>
       </c>
@@ -1599,7 +1625,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
@@ -1610,7 +1636,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
@@ -1621,10 +1647,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>3</v>
       </c>
@@ -1638,7 +1664,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>3</v>
       </c>
@@ -1648,11 +1674,11 @@
       <c r="F40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>4</v>
       </c>
@@ -1662,18 +1688,18 @@
       <c r="F41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>3</v>
       </c>
@@ -1687,7 +1713,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>3</v>
       </c>
@@ -1701,7 +1727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>3</v>
       </c>
@@ -1715,7 +1741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>3</v>
       </c>
@@ -1723,9 +1749,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>3</v>
       </c>
@@ -1739,7 +1765,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>3</v>
       </c>
@@ -1753,7 +1779,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
@@ -1770,7 +1796,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>3</v>
       </c>
@@ -1787,9 +1813,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="2" t="s">
         <v>4</v>
       </c>
@@ -1806,7 +1832,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
@@ -1834,41 +1860,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="17.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1879,99 +1905,71 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="F6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>122</v>
+      <c r="F9" s="5">
+        <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
@@ -1979,21 +1977,80 @@
         <v>83</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2011,40 +2068,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9" style="6"/>
-    <col min="7" max="7" width="25.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="10.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="6" customWidth="1"/>
     <col min="8" max="8" width="92" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2055,21 +2113,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="12" t="s">
         <v>135</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>3</v>
       </c>
@@ -2080,7 +2138,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>3</v>
       </c>

--- a/tools/tools_software/vscode-vim快捷键总结.xlsx
+++ b/tools/tools_software/vscode-vim快捷键总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="windows" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="164">
   <si>
     <t>组合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -605,6 +605,71 @@
   </si>
   <si>
     <t>git push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能命令行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向下插入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上插入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里最好用VIM的o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里最好用VIM的O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考链接：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/83987698</t>
+  </si>
+  <si>
+    <t>添加try/catch</t>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取代码</t>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码大小写转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -681,10 +746,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -972,39 +1040,39 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1015,7 +1083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1031,7 +1099,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1046,7 +1114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1061,7 +1129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1076,7 +1144,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1093,7 +1161,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1102,7 +1170,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -1119,7 +1187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -1136,7 +1204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1147,7 +1215,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
@@ -1158,11 +1226,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>3</v>
@@ -1179,7 +1247,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>3</v>
@@ -1196,7 +1264,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>3</v>
@@ -1213,7 +1281,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C19" s="3" t="s">
         <v>108</v>
       </c>
@@ -1242,40 +1310,40 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1286,7 +1354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1297,7 +1365,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1308,7 +1376,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1319,7 +1387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1330,7 +1398,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1341,7 +1409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1355,7 +1423,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1366,7 +1434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1380,7 +1448,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1391,7 +1459,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1402,7 +1470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1413,7 +1481,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1424,7 +1492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1435,7 +1503,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1446,7 +1514,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1460,7 +1528,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
@@ -1471,7 +1539,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -1482,7 +1550,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
@@ -1493,7 +1561,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1504,7 +1572,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
@@ -1515,7 +1583,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1526,7 +1594,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1537,7 +1605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
@@ -1548,7 +1616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
@@ -1559,7 +1627,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1570,7 +1638,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
@@ -1581,7 +1649,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
@@ -1592,7 +1660,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
@@ -1603,7 +1671,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
         <v>4</v>
       </c>
@@ -1614,7 +1682,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="s">
         <v>74</v>
       </c>
@@ -1625,7 +1693,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
@@ -1636,7 +1704,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
@@ -1647,10 +1715,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
         <v>3</v>
       </c>
@@ -1664,7 +1732,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>3</v>
       </c>
@@ -1674,11 +1742,11 @@
       <c r="F40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
         <v>4</v>
       </c>
@@ -1688,18 +1756,18 @@
       <c r="F41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>3</v>
       </c>
@@ -1713,7 +1781,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>3</v>
       </c>
@@ -1727,7 +1795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>3</v>
       </c>
@@ -1741,7 +1809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>3</v>
       </c>
@@ -1749,9 +1817,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
         <v>3</v>
       </c>
@@ -1765,7 +1833,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>3</v>
       </c>
@@ -1779,7 +1847,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
@@ -1796,7 +1864,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>3</v>
       </c>
@@ -1813,9 +1881,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C55" s="2" t="s">
         <v>4</v>
       </c>
@@ -1832,7 +1900,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
@@ -1860,41 +1928,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="17.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="7" max="7" width="17.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="36.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1905,7 +1982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1919,71 +1996,71 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="F6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5">
+    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="5">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5">
         <v>2</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>83</v>
       </c>
@@ -1991,41 +2068,35 @@
         <v>122</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>4</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D13" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>122</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="C14" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>122</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
@@ -2036,21 +2107,126 @@
         <v>122</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D21" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2068,41 +2244,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="9" style="6"/>
-    <col min="6" max="6" width="10.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" style="6" customWidth="1"/>
     <col min="8" max="8" width="92" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2113,21 +2289,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>135</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>3</v>
       </c>
@@ -2138,7 +2314,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>3</v>
       </c>

--- a/tools/tools_software/vscode-vim快捷键总结.xlsx
+++ b/tools/tools_software/vscode-vim快捷键总结.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="windows" sheetId="2" r:id="rId1"/>
     <sheet name="vscode-vim" sheetId="1" r:id="rId2"/>
     <sheet name="pycharm-vim" sheetId="3" r:id="rId3"/>
-    <sheet name="Excel" sheetId="4" r:id="rId4"/>
+    <sheet name="XMind" sheetId="5" r:id="rId4"/>
+    <sheet name="Excel" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="168">
   <si>
     <t>组合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -670,6 +671,21 @@
   </si>
   <si>
     <t>代码大小写转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/104840795</t>
+  </si>
+  <si>
+    <t>另存为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（个人喜好）快捷键整理，作者：李英俊小朋友，仅供参考，基于Xmind8 Update9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入外框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -747,6 +763,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1052,27 +1071,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1306,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1323,27 +1342,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1742,7 +1761,7 @@
       <c r="F40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1756,7 +1775,7 @@
       <c r="F41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="12"/>
+      <c r="G41" s="13"/>
     </row>
     <row r="42" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
@@ -1765,7 +1784,7 @@
       <c r="F42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="12"/>
+      <c r="G42" s="13"/>
     </row>
     <row r="43" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
@@ -1930,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1945,16 +1964,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="5" t="s">
         <v>157</v>
       </c>
@@ -1966,12 +1985,12 @@
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2241,6 +2260,107 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="8" width="9" style="12"/>
+    <col min="9" max="9" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -2258,27 +2378,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
